--- a/tests/test_data/batch_0/transformation/conceptual_mappings.xlsx
+++ b/tests/test_data/batch_0/transformation/conceptual_mappings.xlsx
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="188">
   <si>
     <t xml:space="preserve">Field</t>
   </si>
@@ -198,10 +198,10 @@
     <t xml:space="preserve">Standard Form Field Name (M)</t>
   </si>
   <si>
-    <t xml:space="preserve">eForm BT-ID (O)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eForm BT Name (O)</t>
+    <t xml:space="preserve">eForm BT-ID (Provisional/Indicative) (O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eForm BT Name (Provisional/Indicative) (O)</t>
   </si>
   <si>
     <t xml:space="preserve">Base XPath (for anchoring) (M)</t>
@@ -1397,6 +1397,12 @@
   </si>
   <si>
     <t xml:space="preserve">Gray font color: Temporary. Revision required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eForm BT-ID (O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eForm BT Name (O)</t>
   </si>
   <si>
     <t xml:space="preserve">II.2.3</t>
@@ -2023,7 +2029,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.63"/>
@@ -2100,8 +2106,8 @@
     <hyperlink ref="C7" r:id="rId1" display="https://semver.org/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2120,7 +2126,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.38"/>
@@ -2128,16 +2134,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="46" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" s="46"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="35" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2145,8 +2151,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2165,7 +2171,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.38"/>
@@ -2173,16 +2179,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="46" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" s="46"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="35" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2190,8 +2196,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2210,7 +2216,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.38"/>
@@ -2218,16 +2224,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="46" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" s="46"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="35" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2235,8 +2241,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2255,7 +2261,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.38"/>
@@ -2263,16 +2269,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="46" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" s="46"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="35" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2280,8 +2286,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2300,15 +2306,15 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2326,10 +2332,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.26"/>
@@ -2375,7 +2381,7 @@
       <c r="Y1" s="8"/>
       <c r="Z1" s="8"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
@@ -6598,8 +6604,8 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6619,7 +6625,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.75"/>
@@ -6711,8 +6717,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6731,7 +6737,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
@@ -6789,10 +6795,10 @@
         <v>19</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>22</v>
@@ -6833,7 +6839,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="43" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>55</v>
@@ -6842,25 +6848,25 @@
         <v>56</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I5" s="43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J5" s="44" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6873,8 +6879,8 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6893,7 +6899,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.12"/>
@@ -6901,40 +6907,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="46" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" s="46"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="35" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -6942,8 +6948,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6962,7 +6968,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.38"/>
@@ -6970,32 +6976,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="46" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" s="46"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="35" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -7003,8 +7009,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7023,7 +7029,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.38"/>
@@ -7031,16 +7037,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="46" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" s="46"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="35" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -7048,8 +7054,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7068,7 +7074,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.38"/>
@@ -7076,16 +7082,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="46" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" s="46"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="35" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -7093,8 +7099,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7113,7 +7119,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.38"/>
@@ -7121,16 +7127,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="46" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" s="46"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="35" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -7138,8 +7144,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
